--- a/Server/ServerData/server_config.xlsx
+++ b/Server/ServerData/server_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\ServerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A5F6C-3CD3-47D6-93B4-6CD4966AAABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B68E4-262B-4416-A479-39CC78E8E953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="3900" windowWidth="21600" windowHeight="9435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>端口号</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>南京大学</t>
-  </si>
-  <si>
-    <t>啦啦啦</t>
   </si>
   <si>
     <t>张三</t>
@@ -102,6 +99,91 @@
   </si>
   <si>
     <t>正方分数权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁判4</t>
+  </si>
+  <si>
+    <t>裁判5</t>
+  </si>
+  <si>
+    <t>裁判6</t>
+  </si>
+  <si>
+    <t>裁判7</t>
+  </si>
+  <si>
+    <t>裁判8</t>
+  </si>
+  <si>
+    <t>裁判9</t>
+  </si>
+  <si>
+    <t>裁判10</t>
+  </si>
+  <si>
+    <t>裁判11</t>
+  </si>
+  <si>
+    <t>裁判12</t>
+  </si>
+  <si>
+    <t>裁判13</t>
+  </si>
+  <si>
+    <t>裁判14</t>
+  </si>
+  <si>
+    <t>裁判15</t>
+  </si>
+  <si>
+    <t>裁判16</t>
+  </si>
+  <si>
+    <t>裁判17</t>
+  </si>
+  <si>
+    <t>裁判18</t>
+  </si>
+  <si>
+    <t>裁判19</t>
+  </si>
+  <si>
+    <t>裁判20</t>
+  </si>
+  <si>
+    <t>裁判21</t>
+  </si>
+  <si>
+    <t>裁判22</t>
+  </si>
+  <si>
+    <t>裁判23</t>
+  </si>
+  <si>
+    <t>裁判24</t>
+  </si>
+  <si>
+    <t>裁判25</t>
+  </si>
+  <si>
+    <t>裁判26</t>
+  </si>
+  <si>
+    <t>西京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的京大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -486,47 +568,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -568,9 +671,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -601,63 +706,629 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>